--- a/_I_UJI-Omics-phd/_S_multiOmicsIntegra/_A_06_Orthologues-R/output/RBHresults.xlsx
+++ b/_I_UJI-Omics-phd/_S_multiOmicsIntegra/_A_06_Orthologues-R/output/RBHresults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">query_id</t>
   </si>
@@ -83,7 +83,22 @@
     <t xml:space="preserve">Solyc00g160260.1.X</t>
   </si>
   <si>
+    <t xml:space="preserve">la</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lala</t>
+  </si>
+  <si>
     <t xml:space="preserve">Solyc00g160270.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blabla</t>
   </si>
 </sst>
 </file>
@@ -131,8 +146,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:U3" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:U3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:U10" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:U10"/>
   <tableColumns count="21">
     <tableColumn id="1" name="query_id"/>
     <tableColumn id="2" name="subject_id"/>
@@ -566,7 +581,7 @@
         <v>60</v>
       </c>
       <c r="S2" t="n">
-        <v>0.00000000000000000000000000000000000000000407</v>
+        <v>0.00000000000000000000000000000000000000000636</v>
       </c>
       <c r="T2" t="n">
         <v>120</v>
@@ -577,7 +592,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -586,58 +601,513 @@
         <v>100</v>
       </c>
       <c r="D3" t="n">
+        <v>55</v>
+      </c>
+      <c r="E3" t="n">
+        <v>55</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>55</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>55</v>
+      </c>
+      <c r="M3" t="n">
+        <v>101</v>
+      </c>
+      <c r="N3" t="n">
+        <v>54</v>
+      </c>
+      <c r="O3" t="n">
+        <v>54</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>55</v>
+      </c>
+      <c r="R3" t="n">
+        <v>55</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.0000000000000000000000000000000000000724</v>
+      </c>
+      <c r="T3" t="n">
+        <v>109</v>
+      </c>
+      <c r="U3" t="n">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>50</v>
+      </c>
+      <c r="E4" t="n">
+        <v>50</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>50</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>50</v>
+      </c>
+      <c r="M4" t="n">
+        <v>101</v>
+      </c>
+      <c r="N4" t="n">
+        <v>50</v>
+      </c>
+      <c r="O4" t="n">
+        <v>50</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>50</v>
+      </c>
+      <c r="R4" t="n">
+        <v>50</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.000000000000000000000000000000000288</v>
+      </c>
+      <c r="T4" t="n">
+        <v>100</v>
+      </c>
+      <c r="U4" t="n">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
         <v>167</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E5" t="n">
         <v>167</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>167</v>
       </c>
-      <c r="J3" t="n">
-        <v>100</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
         <v>167</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M5" t="n">
         <v>167</v>
       </c>
-      <c r="N3" t="n">
-        <v>100</v>
-      </c>
-      <c r="O3" t="n">
-        <v>100</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="n">
+      <c r="N5" t="n">
+        <v>100</v>
+      </c>
+      <c r="O5" t="n">
+        <v>100</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
         <v>167</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R5" t="n">
         <v>167</v>
       </c>
-      <c r="S3" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000022</v>
-      </c>
-      <c r="T3" t="n">
+      <c r="S5" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000344</v>
+      </c>
+      <c r="T5" t="n">
         <v>344</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U5" t="n">
         <v>883</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>60</v>
+      </c>
+      <c r="E6" t="n">
+        <v>60</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>60</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>60</v>
+      </c>
+      <c r="M6" t="n">
+        <v>95</v>
+      </c>
+      <c r="N6" t="n">
+        <v>63</v>
+      </c>
+      <c r="O6" t="n">
+        <v>63</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>60</v>
+      </c>
+      <c r="R6" t="n">
+        <v>60</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.00000000000000000000000000000000000000000611</v>
+      </c>
+      <c r="T6" t="n">
+        <v>120</v>
+      </c>
+      <c r="U6" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" t="n">
+        <v>55</v>
+      </c>
+      <c r="E7" t="n">
+        <v>55</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>55</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>55</v>
+      </c>
+      <c r="M7" t="n">
+        <v>95</v>
+      </c>
+      <c r="N7" t="n">
+        <v>58</v>
+      </c>
+      <c r="O7" t="n">
+        <v>58</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>55</v>
+      </c>
+      <c r="R7" t="n">
+        <v>55</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.0000000000000000000000000000000000000598</v>
+      </c>
+      <c r="T7" t="n">
+        <v>109</v>
+      </c>
+      <c r="U7" t="n">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="n">
+        <v>100</v>
+      </c>
+      <c r="D8" t="n">
+        <v>50</v>
+      </c>
+      <c r="E8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>50</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>50</v>
+      </c>
+      <c r="M8" t="n">
+        <v>95</v>
+      </c>
+      <c r="N8" t="n">
+        <v>53</v>
+      </c>
+      <c r="O8" t="n">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>50</v>
+      </c>
+      <c r="R8" t="n">
+        <v>50</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.000000000000000000000000000000000231</v>
+      </c>
+      <c r="T8" t="n">
+        <v>100</v>
+      </c>
+      <c r="U8" t="n">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="n">
+        <v>100</v>
+      </c>
+      <c r="D9" t="n">
+        <v>159</v>
+      </c>
+      <c r="E9" t="n">
+        <v>159</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>159</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>159</v>
+      </c>
+      <c r="M9" t="n">
+        <v>159</v>
+      </c>
+      <c r="N9" t="n">
+        <v>100</v>
+      </c>
+      <c r="O9" t="n">
+        <v>100</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>159</v>
+      </c>
+      <c r="R9" t="n">
+        <v>167</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000202</v>
+      </c>
+      <c r="T9" t="n">
+        <v>329</v>
+      </c>
+      <c r="U9" t="n">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="n">
+        <v>100</v>
+      </c>
+      <c r="D10" t="n">
+        <v>147</v>
+      </c>
+      <c r="E10" t="n">
+        <v>147</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>147</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>147</v>
+      </c>
+      <c r="M10" t="n">
+        <v>147</v>
+      </c>
+      <c r="N10" t="n">
+        <v>100</v>
+      </c>
+      <c r="O10" t="n">
+        <v>100</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>147</v>
+      </c>
+      <c r="R10" t="n">
+        <v>167</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000344</v>
+      </c>
+      <c r="T10" t="n">
+        <v>305</v>
+      </c>
+      <c r="U10" t="n">
+        <v>782</v>
       </c>
     </row>
   </sheetData>

--- a/_I_UJI-Omics-phd/_S_multiOmicsIntegra/_A_06_Orthologues-R/output/RBHresults.xlsx
+++ b/_I_UJI-Omics-phd/_S_multiOmicsIntegra/_A_06_Orthologues-R/output/RBHresults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t xml:space="preserve">query_id</t>
   </si>
@@ -77,28 +77,52 @@
     <t xml:space="preserve">score_raw</t>
   </si>
   <si>
-    <t xml:space="preserve">Solyc00g160260.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solyc00g160260.1.X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">la</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solyc00g160270.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aaa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blabla</t>
+    <t xml:space="preserve">Solyc01g007910.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT5G23250.2|AT5G23250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solyc01g007910.3.1-partial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solyc01g007920.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT5G23230.1|AT5G23230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solyc01g007940.4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT1G70580.1|AT1G70580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solyc01g008110.5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT1G11680.1|AT1G11680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solyc01g008300.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT3G26040.1|AT3G26040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solyc01g008330.5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT5G35360.1|AT5G35360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solyc01g008330.5.1-partial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solyc01g008460.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT4G05450.1|AT4G05450</t>
   </si>
 </sst>
 </file>
@@ -533,81 +557,81 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>85.763</v>
       </c>
       <c r="D2" t="n">
-        <v>60</v>
+        <v>253</v>
       </c>
       <c r="E2" t="n">
-        <v>60</v>
+        <v>295</v>
       </c>
       <c r="F2" t="n">
+        <v>34</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>263</v>
+      </c>
+      <c r="J2" t="n">
+        <v>89.15</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>287</v>
+      </c>
+      <c r="M2" t="n">
+        <v>333</v>
+      </c>
+      <c r="N2" t="n">
+        <v>86</v>
+      </c>
+      <c r="O2" t="n">
+        <v>86</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>295</v>
+      </c>
+      <c r="R2" t="n">
+        <v>297</v>
+      </c>
+      <c r="S2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>60</v>
-      </c>
-      <c r="J2" t="n">
-        <v>100</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>60</v>
-      </c>
-      <c r="M2" t="n">
-        <v>101</v>
-      </c>
-      <c r="N2" t="n">
-        <v>59</v>
-      </c>
-      <c r="O2" t="n">
-        <v>59</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>60</v>
-      </c>
-      <c r="R2" t="n">
-        <v>60</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.00000000000000000000000000000000000000000636</v>
-      </c>
       <c r="T2" t="n">
-        <v>120</v>
+        <v>506</v>
       </c>
       <c r="U2" t="n">
-        <v>300</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>94.611</v>
       </c>
       <c r="D3" t="n">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c r="E3" t="n">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -616,128 +640,128 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>55</v>
+        <v>161</v>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>96.41</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="M3" t="n">
-        <v>101</v>
+        <v>213</v>
       </c>
       <c r="N3" t="n">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="O3" t="n">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="Q3" t="n">
-        <v>55</v>
+        <v>295</v>
       </c>
       <c r="R3" t="n">
-        <v>55</v>
+        <v>297</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0000000000000000000000000000000000000724</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000421</v>
       </c>
       <c r="T3" t="n">
-        <v>109</v>
+        <v>325</v>
       </c>
       <c r="U3" t="n">
-        <v>273</v>
+        <v>834</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>67.337</v>
       </c>
       <c r="D4" t="n">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>199</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>50</v>
+        <v>166</v>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>83.42</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="M4" t="n">
-        <v>101</v>
+        <v>205</v>
       </c>
       <c r="N4" t="n">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="O4" t="n">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>50</v>
+        <v>198</v>
       </c>
       <c r="R4" t="n">
-        <v>50</v>
+        <v>198</v>
       </c>
       <c r="S4" t="n">
-        <v>0.000000000000000000000000000000000288</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000184</v>
       </c>
       <c r="T4" t="n">
-        <v>100</v>
+        <v>284</v>
       </c>
       <c r="U4" t="n">
-        <v>249</v>
+        <v>727</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>84.746</v>
       </c>
       <c r="D5" t="n">
-        <v>167</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>167</v>
+        <v>472</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -746,368 +770,368 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>167</v>
+        <v>442</v>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>93.64</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>167</v>
+        <v>472</v>
       </c>
       <c r="M5" t="n">
-        <v>167</v>
+        <v>474</v>
       </c>
       <c r="N5" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O5" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>167</v>
+        <v>472</v>
       </c>
       <c r="R5" t="n">
-        <v>167</v>
+        <v>481</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000344</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>344</v>
+        <v>857</v>
       </c>
       <c r="U5" t="n">
-        <v>883</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>82.377</v>
       </c>
       <c r="D6" t="n">
-        <v>60</v>
+        <v>402</v>
       </c>
       <c r="E6" t="n">
-        <v>60</v>
+        <v>488</v>
       </c>
       <c r="F6" t="n">
+        <v>83</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>449</v>
+      </c>
+      <c r="J6" t="n">
+        <v>92.01</v>
+      </c>
+      <c r="K6" t="n">
+        <v>17</v>
+      </c>
+      <c r="L6" t="n">
+        <v>501</v>
+      </c>
+      <c r="M6" t="n">
+        <v>504</v>
+      </c>
+      <c r="N6" t="n">
+        <v>96</v>
+      </c>
+      <c r="O6" t="n">
+        <v>96</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>488</v>
+      </c>
+      <c r="R6" t="n">
+        <v>488</v>
+      </c>
+      <c r="S6" t="n">
         <v>0</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>60</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>60</v>
-      </c>
-      <c r="M6" t="n">
-        <v>95</v>
-      </c>
-      <c r="N6" t="n">
-        <v>63</v>
-      </c>
-      <c r="O6" t="n">
-        <v>63</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>60</v>
-      </c>
-      <c r="R6" t="n">
-        <v>60</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.00000000000000000000000000000000000000000611</v>
-      </c>
       <c r="T6" t="n">
-        <v>120</v>
+        <v>852</v>
       </c>
       <c r="U6" t="n">
-        <v>300</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>37.956</v>
       </c>
       <c r="D7" t="n">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="E7" t="n">
-        <v>55</v>
+        <v>274</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I7" t="n">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>56.57</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>55</v>
+        <v>270</v>
       </c>
       <c r="M7" t="n">
-        <v>95</v>
+        <v>275</v>
       </c>
       <c r="N7" t="n">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="O7" t="n">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q7" t="n">
-        <v>55</v>
+        <v>261</v>
       </c>
       <c r="R7" t="n">
-        <v>55</v>
+        <v>442</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0000000000000000000000000000000000000598</v>
+        <v>0.000000000000000000000000000000000000000000000381</v>
       </c>
       <c r="T7" t="n">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="U7" t="n">
-        <v>273</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
+        <v>83.734</v>
       </c>
       <c r="D8" t="n">
-        <v>50</v>
+        <v>453</v>
       </c>
       <c r="E8" t="n">
-        <v>50</v>
+        <v>541</v>
       </c>
       <c r="F8" t="n">
+        <v>77</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>11</v>
+      </c>
+      <c r="I8" t="n">
+        <v>486</v>
+      </c>
+      <c r="J8" t="n">
+        <v>89.83</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>535</v>
+      </c>
+      <c r="M8" t="n">
+        <v>537</v>
+      </c>
+      <c r="N8" t="n">
+        <v>99</v>
+      </c>
+      <c r="O8" t="n">
+        <v>99</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>536</v>
+      </c>
+      <c r="R8" t="n">
+        <v>537</v>
+      </c>
+      <c r="S8" t="n">
         <v>0</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>50</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>50</v>
-      </c>
-      <c r="M8" t="n">
-        <v>95</v>
-      </c>
-      <c r="N8" t="n">
-        <v>53</v>
-      </c>
-      <c r="O8" t="n">
-        <v>53</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>50</v>
-      </c>
-      <c r="R8" t="n">
-        <v>50</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.000000000000000000000000000000000231</v>
-      </c>
       <c r="T8" t="n">
-        <v>100</v>
+        <v>909</v>
       </c>
       <c r="U8" t="n">
-        <v>249</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>91.325</v>
       </c>
       <c r="D9" t="n">
-        <v>159</v>
+        <v>379</v>
       </c>
       <c r="E9" t="n">
-        <v>159</v>
+        <v>415</v>
       </c>
       <c r="F9" t="n">
+        <v>34</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>395</v>
+      </c>
+      <c r="J9" t="n">
+        <v>95.18</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>415</v>
+      </c>
+      <c r="M9" t="n">
+        <v>417</v>
+      </c>
+      <c r="N9" t="n">
+        <v>99</v>
+      </c>
+      <c r="O9" t="n">
+        <v>99</v>
+      </c>
+      <c r="P9" t="n">
+        <v>124</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>536</v>
+      </c>
+      <c r="R9" t="n">
+        <v>537</v>
+      </c>
+      <c r="S9" t="n">
         <v>0</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>159</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>159</v>
-      </c>
-      <c r="M9" t="n">
-        <v>159</v>
-      </c>
-      <c r="N9" t="n">
-        <v>100</v>
-      </c>
-      <c r="O9" t="n">
-        <v>100</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>159</v>
-      </c>
-      <c r="R9" t="n">
-        <v>167</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000202</v>
-      </c>
       <c r="T9" t="n">
-        <v>329</v>
+        <v>776</v>
       </c>
       <c r="U9" t="n">
-        <v>844</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>56.585</v>
       </c>
       <c r="D10" t="n">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="E10" t="n">
-        <v>147</v>
+        <v>205</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I10" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>72.2</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L10" t="n">
-        <v>147</v>
+        <v>207</v>
       </c>
       <c r="M10" t="n">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="N10" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="O10" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q10" t="n">
-        <v>147</v>
+        <v>197</v>
       </c>
       <c r="R10" t="n">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000344</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000176</v>
       </c>
       <c r="T10" t="n">
-        <v>305</v>
+        <v>229</v>
       </c>
       <c r="U10" t="n">
-        <v>782</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>

--- a/_I_UJI-Omics-phd/_S_multiOmicsIntegra/_A_06_Orthologues-R/output/RBHresults.xlsx
+++ b/_I_UJI-Omics-phd/_S_multiOmicsIntegra/_A_06_Orthologues-R/output/RBHresults.xlsx
@@ -670,7 +670,7 @@
         <v>297</v>
       </c>
       <c r="S3" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000421</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000452</v>
       </c>
       <c r="T3" t="n">
         <v>325</v>
@@ -735,7 +735,7 @@
         <v>198</v>
       </c>
       <c r="S4" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000184</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000197</v>
       </c>
       <c r="T4" t="n">
         <v>284</v>
@@ -930,7 +930,7 @@
         <v>442</v>
       </c>
       <c r="S7" t="n">
-        <v>0.000000000000000000000000000000000000000000000381</v>
+        <v>0.00000000000000000000000000000000000000000000041</v>
       </c>
       <c r="T7" t="n">
         <v>150</v>
@@ -1125,7 +1125,7 @@
         <v>197</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000176</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000189</v>
       </c>
       <c r="T10" t="n">
         <v>229</v>

--- a/_I_UJI-Omics-phd/_S_multiOmicsIntegra/_A_06_Orthologues-R/output/RBHresults.xlsx
+++ b/_I_UJI-Omics-phd/_S_multiOmicsIntegra/_A_06_Orthologues-R/output/RBHresults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t xml:space="preserve">query_id</t>
   </si>
@@ -80,6 +80,9 @@
     <t xml:space="preserve">Solyc01g007910.3.1</t>
   </si>
   <si>
+    <t xml:space="preserve">AT5G08300.1|AT5G08300</t>
+  </si>
+  <si>
     <t xml:space="preserve">AT5G23250.2|AT5G23250</t>
   </si>
   <si>
@@ -95,6 +98,9 @@
     <t xml:space="preserve">Solyc01g007940.4.1</t>
   </si>
   <si>
+    <t xml:space="preserve">AT1G23310.1|AT1G23310</t>
+  </si>
+  <si>
     <t xml:space="preserve">AT1G70580.1|AT1G70580</t>
   </si>
   <si>
@@ -123,6 +129,9 @@
   </si>
   <si>
     <t xml:space="preserve">AT4G05450.1|AT4G05450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT4G21090.1|AT4G21090</t>
   </si>
 </sst>
 </file>
@@ -170,8 +179,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:U10" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:U10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:U14" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:U14"/>
   <tableColumns count="21">
     <tableColumn id="1" name="query_id"/>
     <tableColumn id="2" name="subject_id"/>
@@ -557,111 +566,111 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>85.763</v>
+        <v>82.319</v>
       </c>
       <c r="D2" t="n">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="E2" t="n">
-        <v>295</v>
+        <v>345</v>
       </c>
       <c r="F2" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I2" t="n">
-        <v>263</v>
+        <v>303</v>
       </c>
       <c r="J2" t="n">
-        <v>89.15</v>
+        <v>87.83</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>287</v>
+        <v>332</v>
       </c>
       <c r="M2" t="n">
         <v>333</v>
       </c>
       <c r="N2" t="n">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="O2" t="n">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>295</v>
+        <v>345</v>
       </c>
       <c r="R2" t="n">
-        <v>297</v>
+        <v>347</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>506</v>
+        <v>566</v>
       </c>
       <c r="U2" t="n">
-        <v>1303</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
       <c r="C3" t="n">
-        <v>94.611</v>
+        <v>85.763</v>
       </c>
       <c r="D3" t="n">
-        <v>158</v>
+        <v>253</v>
       </c>
       <c r="E3" t="n">
-        <v>167</v>
+        <v>295</v>
       </c>
       <c r="F3" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I3" t="n">
-        <v>161</v>
+        <v>263</v>
       </c>
       <c r="J3" t="n">
-        <v>96.41</v>
+        <v>89.15</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>167</v>
+        <v>287</v>
       </c>
       <c r="M3" t="n">
-        <v>213</v>
+        <v>333</v>
       </c>
       <c r="N3" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="O3" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="P3" t="n">
-        <v>129</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
         <v>295</v>
@@ -670,13 +679,13 @@
         <v>297</v>
       </c>
       <c r="S3" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000452</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>325</v>
+        <v>506</v>
       </c>
       <c r="U3" t="n">
-        <v>834</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="4">
@@ -684,84 +693,84 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>67.337</v>
+        <v>89.623</v>
       </c>
       <c r="D4" t="n">
+        <v>190</v>
+      </c>
+      <c r="E4" t="n">
+        <v>212</v>
+      </c>
+      <c r="F4" t="n">
+        <v>22</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>201</v>
+      </c>
+      <c r="J4" t="n">
+        <v>94.81</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>212</v>
+      </c>
+      <c r="M4" t="n">
+        <v>213</v>
+      </c>
+      <c r="N4" t="n">
+        <v>99</v>
+      </c>
+      <c r="O4" t="n">
+        <v>99</v>
+      </c>
+      <c r="P4" t="n">
         <v>134</v>
       </c>
-      <c r="E4" t="n">
-        <v>199</v>
-      </c>
-      <c r="F4" t="n">
-        <v>62</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-      <c r="I4" t="n">
-        <v>166</v>
-      </c>
-      <c r="J4" t="n">
-        <v>83.42</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>197</v>
-      </c>
-      <c r="M4" t="n">
-        <v>205</v>
-      </c>
-      <c r="N4" t="n">
-        <v>96</v>
-      </c>
-      <c r="O4" t="n">
-        <v>96</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
       <c r="Q4" t="n">
-        <v>198</v>
+        <v>345</v>
       </c>
       <c r="R4" t="n">
-        <v>198</v>
+        <v>347</v>
       </c>
       <c r="S4" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000197</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000339</v>
       </c>
       <c r="T4" t="n">
-        <v>284</v>
+        <v>390</v>
       </c>
       <c r="U4" t="n">
-        <v>727</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>84.746</v>
+        <v>94.611</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>158</v>
       </c>
       <c r="E5" t="n">
-        <v>472</v>
+        <v>167</v>
       </c>
       <c r="F5" t="n">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -770,84 +779,84 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>442</v>
+        <v>161</v>
       </c>
       <c r="J5" t="n">
-        <v>93.64</v>
+        <v>96.41</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>472</v>
+        <v>167</v>
       </c>
       <c r="M5" t="n">
-        <v>474</v>
+        <v>213</v>
       </c>
       <c r="N5" t="n">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="O5" t="n">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="Q5" t="n">
-        <v>472</v>
+        <v>295</v>
       </c>
       <c r="R5" t="n">
-        <v>481</v>
+        <v>297</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000176</v>
       </c>
       <c r="T5" t="n">
-        <v>857</v>
+        <v>325</v>
       </c>
       <c r="U5" t="n">
-        <v>2214</v>
+        <v>834</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>82.377</v>
+        <v>67.337</v>
       </c>
       <c r="D6" t="n">
-        <v>402</v>
+        <v>134</v>
       </c>
       <c r="E6" t="n">
-        <v>488</v>
+        <v>199</v>
       </c>
       <c r="F6" t="n">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>449</v>
+        <v>166</v>
       </c>
       <c r="J6" t="n">
-        <v>92.01</v>
+        <v>83.42</v>
       </c>
       <c r="K6" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>501</v>
+        <v>197</v>
       </c>
       <c r="M6" t="n">
-        <v>504</v>
+        <v>205</v>
       </c>
       <c r="N6" t="n">
         <v>96</v>
@@ -859,125 +868,125 @@
         <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>488</v>
+        <v>198</v>
       </c>
       <c r="R6" t="n">
-        <v>488</v>
+        <v>198</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000768</v>
       </c>
       <c r="T6" t="n">
-        <v>852</v>
+        <v>284</v>
       </c>
       <c r="U6" t="n">
-        <v>2202</v>
+        <v>727</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C7" t="n">
-        <v>37.956</v>
+        <v>84.144</v>
       </c>
       <c r="D7" t="n">
-        <v>104</v>
+        <v>398</v>
       </c>
       <c r="E7" t="n">
-        <v>274</v>
+        <v>473</v>
       </c>
       <c r="F7" t="n">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="G7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>155</v>
+        <v>439</v>
       </c>
       <c r="J7" t="n">
-        <v>56.57</v>
+        <v>92.81</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>270</v>
+        <v>473</v>
       </c>
       <c r="M7" t="n">
-        <v>275</v>
+        <v>474</v>
       </c>
       <c r="N7" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O7" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>261</v>
+        <v>473</v>
       </c>
       <c r="R7" t="n">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="S7" t="n">
-        <v>0.00000000000000000000000000000000000000000000041</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>150</v>
+        <v>850</v>
       </c>
       <c r="U7" t="n">
-        <v>379</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C8" t="n">
-        <v>83.734</v>
+        <v>84.746</v>
       </c>
       <c r="D8" t="n">
-        <v>453</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>541</v>
+        <v>472</v>
       </c>
       <c r="F8" t="n">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>486</v>
+        <v>442</v>
       </c>
       <c r="J8" t="n">
-        <v>89.83</v>
+        <v>93.64</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>535</v>
+        <v>472</v>
       </c>
       <c r="M8" t="n">
-        <v>537</v>
+        <v>474</v>
       </c>
       <c r="N8" t="n">
         <v>99</v>
@@ -989,149 +998,409 @@
         <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>536</v>
+        <v>472</v>
       </c>
       <c r="R8" t="n">
-        <v>537</v>
+        <v>481</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>909</v>
+        <v>857</v>
       </c>
       <c r="U8" t="n">
-        <v>2350</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" t="n">
-        <v>91.325</v>
+        <v>82.377</v>
       </c>
       <c r="D9" t="n">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="E9" t="n">
-        <v>415</v>
+        <v>488</v>
       </c>
       <c r="F9" t="n">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>395</v>
+        <v>449</v>
       </c>
       <c r="J9" t="n">
-        <v>95.18</v>
+        <v>92.01</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="L9" t="n">
-        <v>415</v>
+        <v>501</v>
       </c>
       <c r="M9" t="n">
-        <v>417</v>
+        <v>504</v>
       </c>
       <c r="N9" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O9" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="P9" t="n">
-        <v>124</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>536</v>
+        <v>488</v>
       </c>
       <c r="R9" t="n">
-        <v>537</v>
+        <v>488</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>776</v>
+        <v>852</v>
       </c>
       <c r="U9" t="n">
-        <v>2003</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C10" t="n">
-        <v>56.585</v>
+        <v>37.956</v>
       </c>
       <c r="D10" t="n">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="E10" t="n">
-        <v>205</v>
+        <v>274</v>
       </c>
       <c r="F10" t="n">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="G10" t="n">
+        <v>10</v>
+      </c>
+      <c r="H10" t="n">
+        <v>21</v>
+      </c>
+      <c r="I10" t="n">
+        <v>155</v>
+      </c>
+      <c r="J10" t="n">
+        <v>56.57</v>
+      </c>
+      <c r="K10" t="n">
         <v>4</v>
       </c>
-      <c r="H10" t="n">
-        <v>15</v>
-      </c>
-      <c r="I10" t="n">
-        <v>148</v>
-      </c>
-      <c r="J10" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>9</v>
-      </c>
       <c r="L10" t="n">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="M10" t="n">
-        <v>208</v>
+        <v>275</v>
       </c>
       <c r="N10" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O10" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P10" t="n">
         <v>2</v>
       </c>
       <c r="Q10" t="n">
+        <v>261</v>
+      </c>
+      <c r="R10" t="n">
+        <v>442</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.00000000000000000000000000000000000000000159</v>
+      </c>
+      <c r="T10" t="n">
+        <v>150</v>
+      </c>
+      <c r="U10" t="n">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="n">
+        <v>83.734</v>
+      </c>
+      <c r="D11" t="n">
+        <v>453</v>
+      </c>
+      <c r="E11" t="n">
+        <v>541</v>
+      </c>
+      <c r="F11" t="n">
+        <v>77</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>11</v>
+      </c>
+      <c r="I11" t="n">
+        <v>486</v>
+      </c>
+      <c r="J11" t="n">
+        <v>89.83</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>535</v>
+      </c>
+      <c r="M11" t="n">
+        <v>537</v>
+      </c>
+      <c r="N11" t="n">
+        <v>99</v>
+      </c>
+      <c r="O11" t="n">
+        <v>99</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>536</v>
+      </c>
+      <c r="R11" t="n">
+        <v>537</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>909</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="n">
+        <v>91.325</v>
+      </c>
+      <c r="D12" t="n">
+        <v>379</v>
+      </c>
+      <c r="E12" t="n">
+        <v>415</v>
+      </c>
+      <c r="F12" t="n">
+        <v>34</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>395</v>
+      </c>
+      <c r="J12" t="n">
+        <v>95.18</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>415</v>
+      </c>
+      <c r="M12" t="n">
+        <v>417</v>
+      </c>
+      <c r="N12" t="n">
+        <v>99</v>
+      </c>
+      <c r="O12" t="n">
+        <v>99</v>
+      </c>
+      <c r="P12" t="n">
+        <v>124</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>536</v>
+      </c>
+      <c r="R12" t="n">
+        <v>537</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>776</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="n">
+        <v>56.585</v>
+      </c>
+      <c r="D13" t="n">
+        <v>116</v>
+      </c>
+      <c r="E13" t="n">
+        <v>205</v>
+      </c>
+      <c r="F13" t="n">
+        <v>74</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>15</v>
+      </c>
+      <c r="I13" t="n">
+        <v>148</v>
+      </c>
+      <c r="J13" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>9</v>
+      </c>
+      <c r="L13" t="n">
+        <v>207</v>
+      </c>
+      <c r="M13" t="n">
+        <v>208</v>
+      </c>
+      <c r="N13" t="n">
+        <v>96</v>
+      </c>
+      <c r="O13" t="n">
+        <v>96</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
         <v>197</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R13" t="n">
         <v>197</v>
       </c>
-      <c r="S10" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000189</v>
-      </c>
-      <c r="T10" t="n">
+      <c r="S13" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000737</v>
+      </c>
+      <c r="T13" t="n">
         <v>229</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U13" t="n">
         <v>583</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="n">
+        <v>78.676</v>
+      </c>
+      <c r="D14" t="n">
+        <v>107</v>
+      </c>
+      <c r="E14" t="n">
+        <v>136</v>
+      </c>
+      <c r="F14" t="n">
+        <v>23</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+      <c r="I14" t="n">
+        <v>119</v>
+      </c>
+      <c r="J14" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>78</v>
+      </c>
+      <c r="L14" t="n">
+        <v>207</v>
+      </c>
+      <c r="M14" t="n">
+        <v>208</v>
+      </c>
+      <c r="N14" t="n">
+        <v>63</v>
+      </c>
+      <c r="O14" t="n">
+        <v>63</v>
+      </c>
+      <c r="P14" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>197</v>
+      </c>
+      <c r="R14" t="n">
+        <v>197</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000972</v>
+      </c>
+      <c r="T14" t="n">
+        <v>226</v>
+      </c>
+      <c r="U14" t="n">
+        <v>575</v>
       </c>
     </row>
   </sheetData>
